--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -211,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,16 +219,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -236,17 +256,295 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -254,6 +552,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0099FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -528,16 +831,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
@@ -549,136 +852,156 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="405" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="315" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="5" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:10" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -36,24 +36,7 @@
     <t>Naïve Bayes Classifier</t>
   </si>
   <si>
-    <t xml:space="preserve">If you have a moderate or large training data set.
-If the instances have several attributes.
-Given the classification parameter, attributes which describe the instances should be conditionally independent.
-</t>
-  </si>
-  <si>
-    <t>Sentiment Analysis
-Document Categorization
-classifying news articles about Technology, Entertainment, Sports, Politics, etc.
-Email Spam Filtering</t>
-  </si>
-  <si>
     <t>K Means Clustering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for cluster analysis. K-Means is a non-deterministic and iterative method.
-The search term “Jaguar” on Wikipedia will return all pages containing the word Jaguar which can refer to Jaguar as a Car, Jaguar as Mac OS version and Jaguar as an Animal. K Means clustering algorithm can be applied to group the webpages that talk about similar concepts. So, the algorithm will group all web pages that talk about Jaguar as an Animal into one cluster, Jaguar as a Car into another cluster and so on.
-</t>
   </si>
   <si>
     <t xml:space="preserve">K Means Clustering algorithm is used by most of the search engines like Yahoo, Google to cluster web pages by similarity and identify the ‘relevance rate’ of search results. This helps search engines reduce the computational time for the users.
@@ -63,11 +46,6 @@
     <t>categories</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Linear SVM’s – In linear SVM’s the training data i.e. classifiers are separated by a hyperplane.
-Non-Linear SVM’s- In non-linear SVM’s it is not possible to separate the training data using a hyperplane. For example, the training data for Face detection consists of group of images that are faces and another group of images that are not faces (in other words all other images in the world except faces). Under such conditions, the training data is too complex that it is impossible to find a representation for every feature vector. Separating the set of faces linearly from the set of non-face is a complex task.</t>
-  </si>
-  <si>
     <t>Support Vector Machine</t>
   </si>
   <si>
@@ -77,134 +55,156 @@
     <t>SVM is commonly used for stock market forecasting by various financial institutions. For instance, it can be used to compare the relative performance of the stocks when compared to performance of other stocks in the same sector. The relative comparison of stocks helps manage investment making decisions based on the classifications made by the SVM learning algorithm.</t>
   </si>
   <si>
-    <t>SVM offers best classification performance (accuracy) on the training data.
-SVM renders more efficiency for correct classification of the future data.
-The best thing about SVM is that it does not make any strong assumptions on data.
-It does not over-fit the data.</t>
-  </si>
-  <si>
     <t>Linear Regression</t>
   </si>
   <si>
-    <t>shows the relationship between 2 variables and how the change in one variable impacts the other. The algorithm shows the impact on the dependent variable on changing the independent variable. The independent variables are referred as explanatory variables, as they explain the factors the impact the dependent variable. Dependent variable is often referred to as the factor of interest or predictor.</t>
-  </si>
-  <si>
-    <t>It is one of the most interpretable machine learning algorithms, making it easy to explain to others.
-It is easy of use as it requires minimal tuning.
-It is the mostly widely used machine learning technique that runs fast.</t>
-  </si>
-  <si>
-    <t>Estimating Sales
-Risk Assessment</t>
-  </si>
-  <si>
     <t>Decision Tree</t>
   </si>
   <si>
-    <t>Decision trees are among the popular machine learning algorithms that find great use in finance for option pricing.
-Remote sensing is an application area for pattern recognition based on decision trees.
-Decision tree algorithms are used by banks to classify loan applicants by their probability of defaulting payments.
-Gerber Products, a popular baby product company, used decision tree machine learning algorithm to decide whether they should continue using the plastic PVC (Poly Vinyl Chloride) in their products.
-Rush University Medical Centre has developed a tool named Guardian that uses a decision tree machine learning algorithm to identify at-risk patients and disease trends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The more the number of decisions in a tree, less is the accuracy of any expected outcome.
-A major drawback of decision tree machine learning algorithms, is that the outcomes may be based on expectations. When decisions are made in real-time, the payoffs and resulting outcomes might not be the same as expected or planned. There are chances that this could lead to unrealistic decision trees leading to bad decision making. Any irrational expectations could lead to major errors and flaws in decision tree analysis, as it is not always possible to plan for all eventualities that can arise from a decision.
-Decision Trees do not fit well for continuous variables and result in instability and classification plateaus.
-Decision trees are easy to use when compared to other decision making models but creating large decision trees that contain several branches is a complex and time consuming task.
-Decision tree machine learning algorithms consider only one attribute at a time and might not be best suited for actual data in the decision space.
-Large sized decision trees with multiple branches are not comprehensible and pose several presentation difficulties.
-</t>
-  </si>
-  <si>
     <t>Drawbacks</t>
-  </si>
-  <si>
-    <t>Decision trees are robust to errors and if the training data contains errors- decision tree algorithms will be best suited to address such problems.
-Decision trees are best suited for problems where instances are represented by attribute value pairs.
-If the training data has missing value then decision trees can be used, as they can handle missing values nicely by looking at the data in other columns.
-Decision trees are best suited when the target function has discrete output values.
-help a data scientist capture the idea that if a different decision was taken, then how the operational nature of a situation or model would have changed intensely.
-Decision tree algorithms help make optimal decisions by allowing a data scientist to traverse through forward and backward calculation paths.</t>
   </si>
   <si>
     <t>In case of globular clusters, K-Means produces tighter clusters than hierarchical clustering.
 Given a smaller value of K, K-Means clustering computes faster than hierarchical clustering for large number of variables.</t>
   </si>
   <si>
-    <t>Naïve Bayes Classifier algorithm performs well when the input variables are categorical.
-A Naïve Bayes classifier converges faster, requiring relatively little training data than other discriminative models like logistic regression, when the Naïve Bayes conditional independence assumption holds.
-With Naïve Bayes Classifier algorithm, it is easier to predict class of the test data set. A good bet for multi class predictions as well.
-Though it requires conditional independence assumption, Naïve Bayes Classifier has presented good performance in various application domains.</t>
-  </si>
-  <si>
     <t>Random Forest</t>
   </si>
   <si>
-    <t xml:space="preserve">Random Forest is the go to machine learning algorithm that uses a bagging approach to create a bunch of decision trees with random subset of the data. A model is trained several times on random sample of the dataset to achieve good prediction performance from the random forest algorithm.In this ensemble learning method, the output of all the decision trees in the random forest, is combined to make the final prediction. The final prediction of the random forest algorithm is derived by polling the results of each decision tree or just by going with a prediction that appears the most times in the decision trees.
-There are many good open source, free implementations of the algorithm available in Python and R.
-It maintains accuracy when there is missing data and is also resistant to outliers.
-Simple to use as the basic random forest algorithm can be implemented with just a few lines of code.
-Random Forest machine learning algorithms help data scientists save data preparation time, as they do not require any input preparation and are capable of handling numerical, binary and categorical features, without scaling, transformation or modification.
-Implicit feature selection as it gives estimates on what variables are important in the classification.
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. When we have a moderate or large training data set.
+2. If the instances have several attributes.
 </t>
   </si>
   <si>
-    <t>Random Forest algorithms are used by banks to predict if a loan applicant is a likely high risk.
-They are used in the automobile industry to predict the failure or breakdown of a mechanical part.
-These algorithms are used in the healthcare industry to predict if a patient is likely to develop a chronic disease or not.
-They can also be used for regression tasks like predicting the average number of social media shares and performance scores.
-Recently, the algorithm has also made way into predicting patterns in speech recognition software and classifying images and texts.</t>
-  </si>
-  <si>
-    <t>Overfitting is less of an issue with Random Forests, unlike decision tree machine learning algorithms. There is no need of pruning the random forest.
-These algorithms are fast but not in all cases. A random forest algorithm, when run on an 800 MHz machine with a dataset of 100 variables and 50,000 cases produced 100 decision trees in 11 minutes.
-Random Forest is one of the most effective and versatile machine learning algorithm for wide variety of classification and regression tasks, as they are more robust to noise.
-It is difficult to build a bad random forest. In the implementation of Random Forest Machine Learning algorithms, it is easy to determine which parameters to use because they are not sensitive to the parameters that are used to run the algorithm. One can easily build a decent model without much tuning.
-Random Forest machine learning algorithms can be grown in parallel.
-This algorithm runs efficiently on large databases.
-Has higher classification accuracy.</t>
-  </si>
-  <si>
-    <t>They might be easy to use but analysing them theoretically, is difficult.
-Large number of decision trees in the random forest can slow down the algorithm in making real-time predictions.
-If the data consists of categorical variables with different number of levels, then the algorithm gets biased in favour of those attributes that have more levels. In such situations, variable importance scores do not seem to be reliable.
-When using RandomForest algorithm for regression tasks, it does not predict beyond the range of the response values in the training data.</t>
-  </si>
-  <si>
-    <t>Logistic Regression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This algorithm applies a logistic function to a linear combination of features to predict the outcome of a categorical dependent variable based on predictor variables.Just suppose that you want to predict if there will be a snowfall tomorrow in New York. Here the outcome of the prediction is not a continuous number because there will either be snowfall or no snowfall and hence linear regression cannot be applied. Here the outcome variable is one of the several categories and using logistic regression helps.
-Use logistic regression algorithms when there is a requirement to model the probabilities of the response variable as a function of some other explanatory variable. For example,  probability of buying a product X as a function of gender
-Use logistic regression algorithms when there is a need to predict probabilities that categorical dependent variable will fall into two categories of the binary response as a function of some explanatory variables. For example, what is the probability that a customer will buy a perfume given that the customer is a female?
-Logistic regression algorithms is also best suited when the need is to classify elements two categories based on the explanatory variable. For example-classify females into ‘young’ or ‘old’ group based on their age.
+    <t>About</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for cluster analysis. 
 </t>
   </si>
   <si>
-    <t>Logistic regression algorithm is applied in the field of epidemiology to identify risk factors for diseases and plan accordingly for preventive measures.
-Used to predict whether a candidate will win or lose a political election or to predict whether a voter will vote for a particular candidate.
-Used to classify a set of words as nouns, pronouns, verbs, adjectives.
-Used in weather forecasting to predict the probability of rain.
-Used in credit scoring systems for risk management to predict the defaulting of an account.</t>
-  </si>
-  <si>
-    <t>Easier to inspect and less complex.
-Robust algorithm as the independent variables need not have equal variance or normal distribution.
-These algorithms do not assume a linear relationship between the dependent and independent variables and hence can also handle non-linear effects.
-Controls confounding and tests interaction.</t>
-  </si>
-  <si>
-    <t>When the training data is sparse and high dimensional, in such situations a logistic model may over fit the training data.
-Logistic regression algorithms cannot predict continuous outcomes. For instance, logistic regression cannot be applied when the goal is to determine how heavily it will rain because the scale of measuring rainfall is continuous. Data scientists can predict heavy or low rainfall but this would make some compromises with the precision of the dataset.
-Logistic regression algorithms require more data to achieve stability and meaningful results. These algorithms require minimum of 50 data points per predictor to achieve stable outcomes.
-It predicts outcomes depending on a group of independent variables and if a data scientist or a machine learning expert goes wrong in identifying the independent variables then the developed model will have minimal or no predictive value.
-It is not robust to outliers and missing values.</t>
-  </si>
-  <si>
-    <t>Binary Logistic Regression – The most commonly used logistic regression when the categorical response has 2 possible outcomes i.e. either yes or not. Example –Predicting whether a student will pass or fail an exam, predicting whether a student will have low or high blood pressure, predicting whether a tumour is cancerous or not.
-Multi-nominal Logistic Regression - Categorical response has 3 or more possible outcomes with no ordering. Example- Predicting what kind of search engine (Yahoo, Bing, Google, and MSN) is used by majority of US citizens.
-Ordinal Logistic Regression - Categorical response has 3 or more possible outcomes with natural ordering. Example- How a customer rates the service and quality of food at a restaurant based on a scale of 1 to 10.</t>
+    <t>K-Means is a non-deterministic and iterative method. The search term “Jaguar” on Wikipedia will return all pages containing the word Jaguar which can refer to Jaguar as a Car, Jaguar as Mac OS version and Jaguar as an Animal. K Means clustering algorithm can be applied to group the webpages that talk about similar concepts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows the relationship between 2 variables and how the change in one variable impacts the other. The algorithm shows the impact on the dependent variable on changing the independent variable. </t>
+  </si>
+  <si>
+    <t>help a data scientist capture the idea that if a different decision was taken, then how the operational nature of a situation or model would have changed intensely.</t>
+  </si>
+  <si>
+    <t>Decision tree algorithms help make optimal decisions by allowing a data scientist to traverse through forward and backward calculation paths.</t>
+  </si>
+  <si>
+    <t>Random Forest is the go to machine learning algorithm that uses a bagging approach to create a bunch of decision trees with random subset of the data. A model is trained several times on random sample of the dataset to achieve good prediction performance from the random forest algorithm.In this ensemble learning method, the output of all the decision trees in the random forest, is combined to make the final prediction. The final prediction of the random forest algorithm is derived by polling the results of each decision tree or just by going with a prediction that appears the most times in the decision trees.</t>
+  </si>
+  <si>
+    <t>This algorithm applies a logistic function to a linear combination of features to predict the outcome of a categorical dependent variable based on predictor variables</t>
+  </si>
+  <si>
+    <t>1. It maintains accuracy when there is missing data and is also resistant to outliers.
+2. Simple to use as the basic random forest algorithm can be implemented with just a few lines of code.
+3. Help data scientists save data preparation time, as they do not require any input preparation and are capable of handling numerical, binary and categorical features, without scaling, transformation or modification.
+4. Implicit feature selection as it gives estimates on what variables are important in the classification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Used when there is a requirement to model the probabilities of the response variable as a function of some other explanatory variable. For example,  probability of buying a product X as a function of gender
+2. Used when there is a need to predict probabilities that categorical dependent variable will fall into two categories of the binary response as a function of some explanatory variables. For example, what is the probability that a customer will buy a perfume given that the customer is a female?
+3. Best suited when the need is to classify elements two categories based on the explanatory variable. For example-classify females into ‘young’ or ‘old’ group based on their age.
+</t>
+  </si>
+  <si>
+    <t>1. Sentiment Analysis
+2. Document Categorization
+3. classifying news articles about Technology, Entertainment, Sports, Politics, etc.
+4. Email Spam Filtering</t>
+  </si>
+  <si>
+    <t>1. Estimating Sales
+2. Risk Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Used to find great use in finance for option pricing.
+2. Remote sensing is an application area for pattern recognition based on decision trees.
+3. Used by banks to classify loan applicants by their probability of defaulting payments.
+</t>
+  </si>
+  <si>
+    <t>1. Used by banks to predict if a loan applicant is a likely high risk.
+2. Used in the automobile industry to predict the failure or breakdown of a mechanical part.
+3. Used in the healthcare industry to predict if a patient is likely to develop a chronic disease or not.
+4. Used for regression tasks like predicting the average number of social media shares and performance scores.
+5. Recently, the algorithm has also made way into predicting patterns in speech recognition software and classifying images and texts.</t>
+  </si>
+  <si>
+    <t>1. Applied in the field of epidemiology to identify risk factors for diseases and plan accordingly for preventive measures.
+2. Used to predict whether a candidate will win or lose a political election
+3. Used to classify a set of words as nouns, pronouns, verbs, adjectives.
+4. Used in weather forecasting to predict the probability of rain.
+5. Used in credit scoring systems for risk management to predict the defaulting of an account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Performs well when the input variables are categorical.
+2. A Naïve Bayes classifier converges faster, requiring relatively little training data than other discriminative models like logistic regression, when the Naïve Bayes conditional independence assumption holds.
+</t>
+  </si>
+  <si>
+    <t>1. SVM offers best classification performance (accuracy) on the training data.
+2. SVM renders more efficiency for correct classification of the future data.
+3. The best thing about SVM is that it does not make any strong assumptions on data.
+4. It does not over-fit the data.</t>
+  </si>
+  <si>
+    <t>1. It is one of the most interpretable machine learning algorithms, making it easy to explain to others.
+2. It is easy of use as it requires minimal tuning.
+3. It is the mostly widely used machine learning technique that runs fast.</t>
+  </si>
+  <si>
+    <t>1. Overfitting is less of an issue
+2. These algorithms are fast but not in all cases. A random forest algorithm, when run on an 800 MHz machine with a dataset of 100 variables and 50,000 cases produced 100 decision trees in 11 minutes.
+3. Most effective and versatile used for wide variety of classification and regression tasks, as they are more robust to noise.
+4. It is easy to determine which parameters to use because they are not sensitive to the parameters that are used to run the algorithm. One can easily build a decent model without much tuning.
+5. Random Forest machine learning algorithms can be grown in parallel.
+6. This algorithm runs efficiently on large databases.
+7. Has higher classification accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Easier to inspect and less complex.
+2. Robust algorithm as the independent variables need not have equal variance or normal distribution.
+3. These algorithms do not assume a linear relationship between the dependent and independent variables and hence can also handle non-linear effects.
+</t>
+  </si>
+  <si>
+    <t>1. The more the number of decisions in a tree, less is the accuracy of any expected outcome.
+2. Outcomes may be based on expectations. When decisions are made in real-time, the payoffs and resulting outcomes might not be the same as expected or planned. There are chances that this could lead to unrealistic decision trees leading to bad decision making. 
+3. Do not fit well for continuous variables 
+4. Creating large decision trees that contain several branches is a complex and time consuming task.
+5. Consider only one attribute at a time and might not be best suited for actual data in the decision space.
+6. Large sized decision trees with multiple branches are not comprehensible and pose several presentation difficulties.</t>
+  </si>
+  <si>
+    <t>1. They might be easy to use but analysing them theoretically, is difficult.
+2. Large number of decision trees in the random forest can slow down the algorithm in making real-time predictions.
+3. If the data consists of categorical variables with different number of levels, then the algorithm gets biased in favour of those attributes that have more levels.
+4. When using RandomForest algorithm for regression tasks, it does not predict beyond the range of the response values in the training data.</t>
+  </si>
+  <si>
+    <t>1. In high dimens, model may over fit the training data.
+2. Logistic regression algorithms cannot predict continuous outcomes. For instance, model cannot be applied when the goal is to determine how heavily it will rain because the scale of measuring rainfall is continuous. Data scientists can predict heavy or low rainfall but this would make some compromises with the precision of the dataset.
+3. Logistic regression algorithms require more data to achieve stability and meaningful results. Require minimum of 50 data points
+4. It predicts outcomes depending on a group of independent variables and if we identify wrong independent variables then the developed model will have minimal or no predictive value.
+5. It is not robust to outliers and missing values.</t>
+  </si>
+  <si>
+    <t>1. Linear SVM’s – In linear SVM’s the training data i.e. classifiers are separated by a hyperplane.
+2. Non-Linear SVM’s- In non-linear SVM’s it is not possible to separate the training data using a hyperplane. For example, the training data for Face detection consists of group of images that are faces and another group of images that are not faces (in other words all other images in the world except faces). Under such conditions, the training data is too complex that it is impossible to find a representation for every feature vector. Separating the set of faces linearly from the set of non-face is a complex task.</t>
+  </si>
+  <si>
+    <t>1. Binary Logistic Regression – The most commonly used logistic regression when the categorical response has 2 possible outcomes i.e. either yes or not. 
+2. Multi-nominal Logistic Regression - Categorical response has 3 or more possible outcomes with no ordering. Example- Predicting what kind of search engine (Yahoo, Bing, Google, and MSN) is used by majority of US citizens.
+3. Ordinal Logistic Regression - Categorical response has 3 or more possible outcomes with natural ordering. Example- How a customer rates the service and quality of food at a restaurant based on a scale of 1 to 10.</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -480,11 +480,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -544,6 +586,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -831,11 +885,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,145 +914,179 @@
         <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="405" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="315" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="345" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
+    <row r="6" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -84,9 +84,6 @@
   <si>
     <t xml:space="preserve">Used for cluster analysis. 
 </t>
-  </si>
-  <si>
-    <t>K-Means is a non-deterministic and iterative method. The search term “Jaguar” on Wikipedia will return all pages containing the word Jaguar which can refer to Jaguar as a Car, Jaguar as Mac OS version and Jaguar as an Animal. K Means clustering algorithm can be applied to group the webpages that talk about similar concepts.</t>
   </si>
   <si>
     <t xml:space="preserve">shows the relationship between 2 variables and how the change in one variable impacts the other. The algorithm shows the impact on the dependent variable on changing the independent variable. </t>
@@ -114,12 +111,6 @@
 2. Used when there is a need to predict probabilities that categorical dependent variable will fall into two categories of the binary response as a function of some explanatory variables. For example, what is the probability that a customer will buy a perfume given that the customer is a female?
 3. Best suited when the need is to classify elements two categories based on the explanatory variable. For example-classify females into ‘young’ or ‘old’ group based on their age.
 </t>
-  </si>
-  <si>
-    <t>1. Sentiment Analysis
-2. Document Categorization
-3. classifying news articles about Technology, Entertainment, Sports, Politics, etc.
-4. Email Spam Filtering</t>
   </si>
   <si>
     <t>1. Estimating Sales
@@ -205,6 +196,53 @@
     <t>1. Binary Logistic Regression – The most commonly used logistic regression when the categorical response has 2 possible outcomes i.e. either yes or not. 
 2. Multi-nominal Logistic Regression - Categorical response has 3 or more possible outcomes with no ordering. Example- Predicting what kind of search engine (Yahoo, Bing, Google, and MSN) is used by majority of US citizens.
 3. Ordinal Logistic Regression - Categorical response has 3 or more possible outcomes with natural ordering. Example- How a customer rates the service and quality of food at a restaurant based on a scale of 1 to 10.</t>
+  </si>
+  <si>
+    <t>1. Sentiment Analysis
+2. Document Categorization
+3. classifying news articles about Technology, Entertainment, Sports, Politics, etc.
+4. Email Spam Filtering
+5. Face recognition</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>Y =  a * X + b
+Y – Dependent Variable, a – Slope, X – Independent variable
+b – Intercept</t>
+  </si>
+  <si>
+    <t>A Naive Bayes classifier assumes that the presence of a particular feature in a class is unrelated to the presence of any other feature.
+Even if these features are related to each other, a Naive Bayes classifier would consider all of these properties independently when calculating the probability of a particular outcome.
+A Naive Bayesian model is easy to build and useful for massive datasets. It's simple, and is known to outperform even highly sophisticated classification methods</t>
+  </si>
+  <si>
+    <t>K- Nearest Neighbors</t>
+  </si>
+  <si>
+    <t>can be applied to both classification and regression problems.widely used to solve classification problems. It’s a simple algorithm that stores all available cases and classifies any new cases by taking a majority vote of its k neighbors. The case is then assigned to the class with which it has the most in common.  A distance function performs this measurement.</t>
+  </si>
+  <si>
+    <t>KNN is computationally expensive
+Variables should be normalized, or else higher range variables can bias the algorithm
+Data still needs to be pre-processed.</t>
+  </si>
+  <si>
+    <t>The K-means algorithm picks k number of points, called centroids, for each cluster
+Each data point forms a cluster with the closest centroids i.e. k clusters.
+It now creates new centroids, based on the existing cluster members.
+With these new centroids, the closest distance for each data point is determined. This process is repeated until the centroids do not change.</t>
+  </si>
+  <si>
+    <t>How it wars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>unsupervised algorithm which solves clustering problems. K-Means is a non-deterministic and iterative method. The search term “Jaguar” on Wikipedia will return all pages containing the word Jaguar which can refer to Jaguar as a Car, Jaguar as Mac OS version and Jaguar as an Animal. K Means clustering algorithm can be applied to group the webpages that talk about similar concepts.</t>
   </si>
 </sst>
 </file>
@@ -248,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -480,53 +518,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -588,17 +584,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,6 +610,368 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1624012</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="2014537"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1624012</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="2014537"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1393651" cy="352469"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1704975" y="2843212"/>
+              <a:ext cx="1393651" cy="352469"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-IN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val=""/>
+                            <m:endChr m:val="|"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐴</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-IN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:begChr m:val=""/>
+                                <m:endChr m:val="|"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-IN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-IN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐵</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:d>
+                            <m:r>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐴</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐴</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-IN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-IN" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1704975" y="2843212"/>
+              <a:ext cx="1393651" cy="352469"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃(├ 𝐴┤|𝐵)=𝑃(├ 𝐵┤|𝐴)𝑃(𝐴)/𝑃(𝐵) </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,22 +1237,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="54.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="54.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="54.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="55" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
@@ -914,13 +1267,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>12</v>
@@ -929,167 +1282,200 @@
         <v>15</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+    <row r="2" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="240" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="12"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -244,12 +245,65 @@
   <si>
     <t>unsupervised algorithm which solves clustering problems. K-Means is a non-deterministic and iterative method. The search term “Jaguar” on Wikipedia will return all pages containing the word Jaguar which can refer to Jaguar as a Car, Jaguar as Mac OS version and Jaguar as an Animal. K Means clustering algorithm can be applied to group the webpages that talk about similar concepts.</t>
   </si>
+  <si>
+    <t xml:space="preserve">SVM </t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <r>
+      <t>gamma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>string=&gt; linear, poly, rbf</t>
+  </si>
+  <si>
+    <t>float=&gt; goes with rbf kernel</t>
+  </si>
+  <si>
+    <t>float=&gt; The C parameter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +318,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="4">
@@ -286,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -518,11 +583,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -590,6 +730,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1240,13 +1397,13 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="45.7109375" style="1" customWidth="1"/>
@@ -1259,7 +1416,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1446,7 @@
       </c>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="180">
       <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="135">
       <c r="A3" s="18" t="s">
         <v>49</v>
       </c>
@@ -1337,7 +1494,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="66" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>42</v>
       </c>
@@ -1353,7 +1510,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="225">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="165">
       <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
@@ -1407,7 +1564,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="240">
       <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
@@ -1433,7 +1590,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="225">
       <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
@@ -1455,7 +1612,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="195.75" thickBot="1">
       <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
@@ -1478,4 +1635,74 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -298,12 +298,195 @@
   <si>
     <t>float=&gt; The C parameter</t>
   </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>from sklearn.tree import DecisionTreeClassifier
+classifier = DecisionTreeClassifier()</t>
+  </si>
+  <si>
+    <t>from sklearn.linear_model import LogisticRegression
+classifier = LogisticRegression()</t>
+  </si>
+  <si>
+    <t>from sklearn.metrics import accuracy_score
+from sklearn.cross_validation import train_test_split
+model.fit(X_train,y_train)
+model.predict(X_test)
+accuracy_score(y_test, y_pred)</t>
+  </si>
+  <si>
+    <t>from sklearn.linear_model import LinearRegression</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF525C65"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn.ensemble </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF525C65"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> AdaBoostClassifier
+model = AdaBoostClassifier(base_estimator = DecisionTreeClassifier(max_depth=2), n_estimators = 4)</t>
+    </r>
+  </si>
+  <si>
+    <t>from sklearn.metrics import make_scorer
+from sklearn.metrics import f1_score
+scorer = make_scorer(f1_score)</t>
+  </si>
+  <si>
+    <t>from sklearn.model_selection import GridSearchCV
+parameters = {'kernel':['poly', 'rbf'],'C':[0.1, 1, 10]}
+grid_obj = GridSearchCV(clf, parameters, scoring=scorer)
+grid_fit = grid_obj.fit(X, y)
+best_clf = grid_fit.best_estimator_</t>
+  </si>
+  <si>
+    <t>parameters = {'max_depth':[2,4,6,8,10],'min_samples_leaf':[2,4,6,8,10], 'min_samples_split':[2,4,6,8,10]}</t>
+  </si>
+  <si>
+    <t>HyperParameter</t>
+  </si>
+  <si>
+    <t>Max_depth, min_samples_leaf, min_sampe_split</t>
+  </si>
+  <si>
+    <t>Kernel,gama,C</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn.decomposition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> PCA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn.cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> KMeans</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +513,39 @@
       <color rgb="FF4F4F4F"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF525C65"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -662,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -734,12 +950,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -747,6 +957,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,13 +1619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1629,6 +1854,60 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="105">
+      <c r="C11" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="75">
+      <c r="B14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="F15" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="F16" s="34" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,15 +1936,15 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="24"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -1677,24 +1956,24 @@
       <c r="D3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>62</v>
       </c>
     </row>

--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -481,12 +482,79 @@
       <t xml:space="preserve"> KMeans</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">from sklearn.decomposition import PCA
+pca = PCA(n_components=6)
+pca.fit(good_data)
+reduced_data = pca.fit_transform(good_data)
+reduced_data = pd.DataFrame(reduced_data, columns = ['Dimension 1', 'Dimension 2'])
+</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Mutable</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Tuple</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>FrozenSet</t>
+  </si>
+  <si>
+    <t>OrderedDict</t>
+  </si>
+  <si>
+    <t>DS_Name</t>
+  </si>
+  <si>
+    <t>id(x)</t>
+  </si>
+  <si>
+    <t>The keys, can be of any immutable type and 
+must be unique.
+The values can be of any type, mutable or immutable.</t>
+  </si>
+  <si>
+    <r>
+      <t>mutable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> object can be changed after it is created,
+ and an immutable object can't.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +614,26 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -567,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -874,11 +962,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -957,20 +1073,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,11 +1756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1862,15 +1997,15 @@
       <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="105">
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1886,26 +2021,29 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="75">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
-      <c r="F15" s="34" t="s">
+    <row r="15" spans="1:10" ht="105">
+      <c r="B15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="32" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1921,7 +2059,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1936,12 +2074,12 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="24"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="25" t="s">
@@ -1984,4 +2122,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6">
+      <c r="B2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B9" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B11" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+    </row>
+    <row r="13" spans="2:6" ht="52.5" customHeight="1">
+      <c r="B13" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1082,12 +1082,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1101,11 +1095,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1756,11 +1756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2074,12 +2074,12 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="24"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="25" t="s">
@@ -2128,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2139,113 +2139,113 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="36" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="13" spans="2:6" ht="52.5" customHeight="1">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="45" t="s">
         <v>90</v>
       </c>
     </row>

--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ML Algorithms" sheetId="1" r:id="rId1"/>
+    <sheet name="Hyper Parameter" sheetId="2" r:id="rId2"/>
+    <sheet name="Ordered&amp;Mutable" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -548,6 +549,9 @@
       <t> object can be changed after it is created,
  and an immutable object can't.</t>
     </r>
+  </si>
+  <si>
+    <t>You want to scale data when you're using methods based on measures of how far apart data points, like SVM or KNN. Compare different variables on equal footing</t>
   </si>
 </sst>
 </file>
@@ -994,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1106,6 +1110,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1756,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2129,7 +2136,7 @@
   <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2257,4 +2264,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="171" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -553,12 +554,24 @@
   <si>
     <t>You want to scale data when you're using methods based on measures of how far apart data points, like SVM or KNN. Compare different variables on equal footing</t>
   </si>
+  <si>
+    <t>Examples of low-bias machine learning algorithms include: Decision Trees, k-Nearest Neighbors and Support Vector Machines.</t>
+  </si>
+  <si>
+    <t>Examples of high-bias machine learning algorithms include: Linear Regression, Linear Discriminant Analysis and Logistic Regression.</t>
+  </si>
+  <si>
+    <t>Examples of low-variance machine learning algorithms include: Linear Regression, Linear Discriminant Analysis and Logistic Regression.</t>
+  </si>
+  <si>
+    <t>Examples of high-variance machine learning algorithms include: Decision Trees, k-Nearest Neighbors and Support Vector Machines.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +651,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -998,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1099,6 +1118,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1111,8 +1133,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1764,10 +1786,10 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2066,7 +2088,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2081,12 +2103,12 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="24"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="25" t="s">
@@ -2135,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2234,22 +2256,22 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="13" spans="2:6" ht="52.5" customHeight="1">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="45" t="s">
@@ -2268,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2280,11 +2302,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="46" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="51" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ML Algorithms" sheetId="1" r:id="rId1"/>
     <sheet name="Hyper Parameter" sheetId="2" r:id="rId2"/>
     <sheet name="Ordered&amp;Mutable" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Notes" sheetId="4" r:id="rId4"/>
+    <sheet name="Algorithms purpose" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -84,10 +85,6 @@
   </si>
   <si>
     <t>About</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for cluster analysis. 
-</t>
   </si>
   <si>
     <t xml:space="preserve">shows the relationship between 2 variables and how the change in one variable impacts the other. The algorithm shows the impact on the dependent variable on changing the independent variable. </t>
@@ -244,9 +241,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>unsupervised algorithm which solves clustering problems. K-Means is a non-deterministic and iterative method. The search term “Jaguar” on Wikipedia will return all pages containing the word Jaguar which can refer to Jaguar as a Car, Jaguar as Mac OS version and Jaguar as an Animal. K Means clustering algorithm can be applied to group the webpages that talk about similar concepts.</t>
   </si>
   <si>
     <t xml:space="preserve">SVM </t>
@@ -565,6 +559,81 @@
   </si>
   <si>
     <t>Examples of high-variance machine learning algorithms include: Decision Trees, k-Nearest Neighbors and Support Vector Machines.</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Gradient Descent</t>
+  </si>
+  <si>
+    <t>Cross validation</t>
+  </si>
+  <si>
+    <t>Randomized Cross Validation</t>
+  </si>
+  <si>
+    <t>K-Fold Cross Validation</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Preprocessing</t>
+  </si>
+  <si>
+    <t>Bagging</t>
+  </si>
+  <si>
+    <t>Boosting</t>
+  </si>
+  <si>
+    <t>Boiosting</t>
+  </si>
+  <si>
+    <t>unsupervised algorithm.  The search term “Jaguar” on Wikipedia will return all pages containing the word Jaguar which can refer to Jaguar as a Car, Jaguar as Mac OS version and Jaguar as an Animal. K Means clustering algorithm can be applied to group the webpages that talk about similar concepts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The K-means algorithm picks k number of points, called centroids, for each cluster
+Each data point forms a cluster with the closest centroids i.e. k clusters.
+It now creates new centroids, based on the existing cluster members.
+With these new centroids, the closest distance for each data point is determined. This process is repeated until the centroids do not change.
+</t>
+  </si>
+  <si>
+    <t>1. Parallal computing is Easy
+2. Less sensitive to noise
+3. Good accuracy in all cases</t>
+  </si>
+  <si>
+    <t>1. Best accuracy in all cases
+2. Faster than Bagging</t>
+  </si>
+  <si>
+    <t>1. slow computing</t>
+  </si>
+  <si>
+    <t>1. Parallal computing is Hard
+2. More sensitive to noise
+3. May overfit</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>RandomForestRegressor</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
   </si>
 </sst>
 </file>
@@ -678,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1013,11 +1082,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1121,6 +1216,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1133,8 +1241,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1783,13 +1903,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1802,10 +1922,12 @@
     <col min="8" max="8" width="45.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="54.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="55" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="46.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="46.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1831,45 +1953,50 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="180">
+        <v>44</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="180">
       <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="135">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="135">
       <c r="A3" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="4"/>
@@ -1878,19 +2005,19 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="66" customHeight="1">
+    <row r="4" spans="1:11" ht="66" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="4"/>
       <c r="D4" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1899,7 +2026,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="225">
+    <row r="5" spans="1:11" ht="225">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1909,43 +2036,41 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="165">
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" ht="165">
       <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>6</v>
@@ -1953,65 +2078,75 @@
       <c r="I6" s="2"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="240">
+    <row r="7" spans="1:11" ht="240">
       <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="225">
+      <c r="J7" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="225">
       <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="195.75" thickBot="1">
+        <v>46</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="195.75" thickBot="1">
       <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -2019,61 +2154,61 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="30.75" thickBot="1">
+    <row r="10" spans="1:11" ht="30.75" thickBot="1">
       <c r="A10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="105">
+      <c r="C11" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="75">
+      <c r="B14" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="105">
-      <c r="C11" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D14" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="105">
+      <c r="B15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="F16" s="32" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="75">
-      <c r="B14" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="105">
-      <c r="B15" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="F16" s="32" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2103,45 +2238,45 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="24"/>
-      <c r="B2" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="D4" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2169,113 +2304,113 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6">
       <c r="B2" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1">
       <c r="B9" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B11" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="13" spans="2:6" ht="52.5" customHeight="1">
-      <c r="B13" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="B13" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2292,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2303,31 +2438,328 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="51" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="51" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="47" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="51" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="B1" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="49"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="L6" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ML Algorithms" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -635,12 +635,107 @@
   <si>
     <t>RandomForestClassifier</t>
   </si>
+  <si>
+    <t>DBScan</t>
+  </si>
+  <si>
+    <t>Gaussian Mixture Model</t>
+  </si>
+  <si>
+    <t>K-Means</t>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Adaboost</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>ensamble</t>
+  </si>
+  <si>
+    <t>Finding a separating line or marginal also called hyperplane.  Maximize the margin(distance between the line and the nearist point of either classes)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kernel - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1F22"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">‘linear’, ‘poly’, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D1F22"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>‘rbf’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1F22"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, ‘sigmoid’, ‘precomputed’ or a callable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C(large c more correct data point) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 10, 100, 1000</t>
+    </r>
+  </si>
+  <si>
+    <t>Gama(poly) – 1.0, 10, 100, 1000</t>
+  </si>
+  <si>
+    <t>Adv – ignore outliers</t>
+  </si>
+  <si>
+    <t>Dis – Large data set | noise | slow | overfiting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +821,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F4D78"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1F22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1D1F22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -747,7 +876,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1108,11 +1237,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1229,6 +1395,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1253,7 +1422,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2238,12 +2416,12 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="24"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="25" t="s">
@@ -2391,22 +2569,22 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="13" spans="2:6" ht="52.5" customHeight="1">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="45" t="s">
@@ -2471,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2489,35 +2667,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="50" t="s">
         <v>106</v>
       </c>
@@ -2585,10 +2763,10 @@
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="52" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2609,34 +2787,52 @@
       <c r="I7" s="48"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="48"/>
+      <c r="B8" s="48" t="s">
+        <v>118</v>
+      </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="E8" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
       <c r="I8" s="48"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="48"/>
+      <c r="B9" s="48" t="s">
+        <v>119</v>
+      </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="E9" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
+      <c r="L9" s="61" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="48"/>
+      <c r="B10" s="48" t="s">
+        <v>120</v>
+      </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="E10" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
+      <c r="L10" s="61" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="48"/>
@@ -2647,6 +2843,9 @@
       <c r="G11" s="48"/>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
+      <c r="L11" s="61" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="48"/>
@@ -2657,6 +2856,7 @@
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
+      <c r="L12" s="61"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="48"/>
@@ -2667,6 +2867,12 @@
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
+      <c r="L13" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="48"/>
@@ -2677,6 +2883,12 @@
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
+      <c r="L14" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="48"/>
@@ -2754,12 +2966,61 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="135.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1" s="62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="63"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="63"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B9" s="64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="138">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -729,6 +729,24 @@
   </si>
   <si>
     <t>Dis – Large data set | noise | slow | overfiting</t>
+  </si>
+  <si>
+    <t>Projection of new direction based on maximaum variance inorder to minimize the information loss</t>
+  </si>
+  <si>
+    <t>Transfor data points from higher dimention to transformed value</t>
+  </si>
+  <si>
+    <t>variance [willingness or flexibility of an Algorithm to learn] for PCA is spread of the data distribution</t>
+  </si>
+  <si>
+    <t>Small variance indicates- data points are kind of closly clustered</t>
+  </si>
+  <si>
+    <t>Large variance indicates- data points are spreaded</t>
+  </si>
+  <si>
+    <t>Determination of PCA- the direction that has the largest variance</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1398,6 +1416,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1422,18 +1452,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2416,12 +2437,12 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="24"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="25" t="s">
@@ -2569,22 +2590,22 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="13" spans="2:6" ht="52.5" customHeight="1">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="45" t="s">
@@ -2650,7 +2671,7 @@
   <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2667,35 +2688,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="50" t="s">
         <v>106</v>
       </c>
@@ -2813,7 +2834,7 @@
       <c r="G9" s="48"/>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="53" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2830,7 +2851,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
-      <c r="L10" s="61" t="s">
+      <c r="L10" s="53" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2843,7 +2864,7 @@
       <c r="G11" s="48"/>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
-      <c r="L11" s="61" t="s">
+      <c r="L11" s="53" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2856,7 +2877,7 @@
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
-      <c r="L12" s="61"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="48"/>
@@ -2867,7 +2888,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="53" t="s">
         <v>122</v>
       </c>
       <c r="M13" t="s">
@@ -2883,7 +2904,7 @@
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
-      <c r="L14" s="61" t="s">
+      <c r="L14" s="53" t="s">
         <v>123</v>
       </c>
       <c r="M14" t="s">
@@ -2966,10 +2987,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2980,44 +3001,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="54" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="63"/>
+      <c r="B3" s="55"/>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="55" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="63"/>
+      <c r="B7" s="55"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="55" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="56" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="12" spans="2:2">
+      <c r="B12" s="65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="66"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="66"/>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B19" s="67" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ML Algorithms" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
     <sheet name="Algorithms purpose" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Deep Learning" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="141">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -748,12 +749,21 @@
   <si>
     <t>Determination of PCA- the direction that has the largest variance</t>
   </si>
+  <si>
+    <t>The optimal size of the hidden layer is usually between the size of the input and size of the output layers.</t>
+  </si>
+  <si>
+    <t>The number of hidden neurons should be 2/3 the size of the input layer, plus the size of the output layer.</t>
+  </si>
+  <si>
+    <t>The number of hidden neurons should be less than twice the size of the input layer.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,6 +883,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF47494D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1296,7 +1312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1428,33 +1444,36 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2437,12 +2456,12 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="24"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="25" t="s">
@@ -2590,22 +2609,22 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="13" spans="2:6" ht="52.5" customHeight="1">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="45" t="s">
@@ -2688,35 +2707,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="50" t="s">
         <v>106</v>
       </c>
@@ -2989,7 +3008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3043,42 +3062,76 @@
     </row>
     <row r="11" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="12" spans="2:2">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="57" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="58" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="66"/>
+      <c r="B14" s="58"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="58" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="58" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="66"/>
+      <c r="B18" s="58"/>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="59" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="127.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ML Algorithms" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,10 @@
     <sheet name="Algorithms purpose" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
     <sheet name="Deep Learning" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -598,9 +600,6 @@
     <t>Boosting</t>
   </si>
   <si>
-    <t>Boiosting</t>
-  </si>
-  <si>
     <t>unsupervised algorithm.  The search term “Jaguar” on Wikipedia will return all pages containing the word Jaguar which can refer to Jaguar as a Car, Jaguar as Mac OS version and Jaguar as an Animal. K Means clustering algorithm can be applied to group the webpages that talk about similar concepts.</t>
   </si>
   <si>
@@ -758,12 +757,384 @@
   <si>
     <t>The number of hidden neurons should be less than twice the size of the input layer.</t>
   </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0E84B5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF007020"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> datasets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">iris </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> datasets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>load_iris()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0E84B5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn.naive_bayes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF007020"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> GaussianNB</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>from sklearn.metrics import accuracy_score, precision_score, recall_score, f1_score</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0E84B5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn.linear_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF007020"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> LinearRegression</t>
+    </r>
+  </si>
+  <si>
+    <t>normalize=False</t>
+  </si>
+  <si>
+    <t>LogisticRegression</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0E84B5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn.ensemble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF007020"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> RandomForestClassifier</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0E84B5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn.cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF007020"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> KMeans</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0E84B5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn.neighbors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF007020"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> NearestNeighbors</t>
+    </r>
+  </si>
+  <si>
+    <t>loss function</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +1260,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF007020"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0E84B5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -910,7 +1314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1308,11 +1712,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1447,6 +1866,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1470,9 +1899,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2121,13 +2547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2177,7 +2603,7 @@
         <v>106</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="180">
@@ -2203,7 +2629,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>45</v>
@@ -2216,7 +2642,9 @@
       <c r="A3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2263,7 +2691,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="22"/>
@@ -2321,10 +2749,10 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="30" t="s">
         <v>111</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="225">
@@ -2348,10 +2776,10 @@
         <v>46</v>
       </c>
       <c r="J8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>113</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="195.75" thickBot="1">
@@ -2385,6 +2813,15 @@
       <c r="F10" s="30" t="s">
         <v>62</v>
       </c>
+      <c r="G10" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="105">
       <c r="C11" s="30" t="s">
@@ -2424,9 +2861,40 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75">
+    <row r="16" spans="1:11" ht="16.5" thickBot="1">
       <c r="F16" s="32" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B17" s="61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B18" s="62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B19" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="D22" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2909,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2456,12 +2924,12 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="24"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="25" t="s">
@@ -2609,22 +3077,22 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="13" spans="2:6" ht="52.5" customHeight="1">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="45" t="s">
@@ -2646,7 +3114,7 @@
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2689,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2707,35 +3175,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="50" t="s">
         <v>106</v>
       </c>
@@ -2804,15 +3272,15 @@
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
       <c r="L6" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>83</v>
@@ -2828,7 +3296,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -2842,7 +3310,7 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
@@ -2859,7 +3327,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
@@ -2871,7 +3339,7 @@
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
       <c r="L10" s="53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -2908,10 +3376,10 @@
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
       <c r="L13" s="53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -2924,10 +3392,10 @@
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="L14" s="53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -3021,12 +3489,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="15.75" customHeight="1">
       <c r="B1" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -3034,17 +3502,17 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -3052,23 +3520,23 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" thickBot="1">
       <c r="B9" s="56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="12" spans="2:2">
       <c r="B12" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -3076,17 +3544,17 @@
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -3094,7 +3562,7 @@
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1">
       <c r="B19" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3106,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3116,22 +3584,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="60" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="68" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="60" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="68" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="ML Algorithms" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="137">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -55,12 +54,6 @@
   </si>
   <si>
     <t>Support Vector Machine</t>
-  </si>
-  <si>
-    <t>supervised machine learning algorithm for classification or regression problems.  It works by classifying the data into different classes by finding a line (hyperplane) which separates the training data set into classes. As there are many such linear hyperplanes, SVM algorithm tries to maximize the distance between the various classes that are involved and this is referred as margin maximization. If the line that maximizes the distance between the classes is identified, the probability to generalize well to unseen data is increased.</t>
-  </si>
-  <si>
-    <t>SVM is commonly used for stock market forecasting by various financial institutions. For instance, it can be used to compare the relative performance of the stocks when compared to performance of other stocks in the same sector. The relative comparison of stocks helps manage investment making decisions based on the classifications made by the SVM learning algorithm.</t>
   </si>
   <si>
     <t>Linear Regression</t>
@@ -90,31 +83,10 @@
     <t>About</t>
   </si>
   <si>
-    <t xml:space="preserve">shows the relationship between 2 variables and how the change in one variable impacts the other. The algorithm shows the impact on the dependent variable on changing the independent variable. </t>
-  </si>
-  <si>
     <t>help a data scientist capture the idea that if a different decision was taken, then how the operational nature of a situation or model would have changed intensely.</t>
   </si>
   <si>
     <t>Decision tree algorithms help make optimal decisions by allowing a data scientist to traverse through forward and backward calculation paths.</t>
-  </si>
-  <si>
-    <t>Random Forest is the go to machine learning algorithm that uses a bagging approach to create a bunch of decision trees with random subset of the data. A model is trained several times on random sample of the dataset to achieve good prediction performance from the random forest algorithm.In this ensemble learning method, the output of all the decision trees in the random forest, is combined to make the final prediction. The final prediction of the random forest algorithm is derived by polling the results of each decision tree or just by going with a prediction that appears the most times in the decision trees.</t>
-  </si>
-  <si>
-    <t>This algorithm applies a logistic function to a linear combination of features to predict the outcome of a categorical dependent variable based on predictor variables</t>
-  </si>
-  <si>
-    <t>1. It maintains accuracy when there is missing data and is also resistant to outliers.
-2. Simple to use as the basic random forest algorithm can be implemented with just a few lines of code.
-3. Help data scientists save data preparation time, as they do not require any input preparation and are capable of handling numerical, binary and categorical features, without scaling, transformation or modification.
-4. Implicit feature selection as it gives estimates on what variables are important in the classification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Used when there is a requirement to model the probabilities of the response variable as a function of some other explanatory variable. For example,  probability of buying a product X as a function of gender
-2. Used when there is a need to predict probabilities that categorical dependent variable will fall into two categories of the binary response as a function of some explanatory variables. For example, what is the probability that a customer will buy a perfume given that the customer is a female?
-3. Best suited when the need is to classify elements two categories based on the explanatory variable. For example-classify females into ‘young’ or ‘old’ group based on their age.
-</t>
   </si>
   <si>
     <t>1. Estimating Sales
@@ -127,20 +99,6 @@
 </t>
   </si>
   <si>
-    <t>1. Used by banks to predict if a loan applicant is a likely high risk.
-2. Used in the automobile industry to predict the failure or breakdown of a mechanical part.
-3. Used in the healthcare industry to predict if a patient is likely to develop a chronic disease or not.
-4. Used for regression tasks like predicting the average number of social media shares and performance scores.
-5. Recently, the algorithm has also made way into predicting patterns in speech recognition software and classifying images and texts.</t>
-  </si>
-  <si>
-    <t>1. Applied in the field of epidemiology to identify risk factors for diseases and plan accordingly for preventive measures.
-2. Used to predict whether a candidate will win or lose a political election
-3. Used to classify a set of words as nouns, pronouns, verbs, adjectives.
-4. Used in weather forecasting to predict the probability of rain.
-5. Used in credit scoring systems for risk management to predict the defaulting of an account.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Performs well when the input variables are categorical.
 2. A Naïve Bayes classifier converges faster, requiring relatively little training data than other discriminative models like logistic regression, when the Naïve Bayes conditional independence assumption holds.
 </t>
@@ -157,49 +115,10 @@
 3. It is the mostly widely used machine learning technique that runs fast.</t>
   </si>
   <si>
-    <t>1. Overfitting is less of an issue
-2. These algorithms are fast but not in all cases. A random forest algorithm, when run on an 800 MHz machine with a dataset of 100 variables and 50,000 cases produced 100 decision trees in 11 minutes.
-3. Most effective and versatile used for wide variety of classification and regression tasks, as they are more robust to noise.
-4. It is easy to determine which parameters to use because they are not sensitive to the parameters that are used to run the algorithm. One can easily build a decent model without much tuning.
-5. Random Forest machine learning algorithms can be grown in parallel.
-6. This algorithm runs efficiently on large databases.
-7. Has higher classification accuracy.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Easier to inspect and less complex.
 2. Robust algorithm as the independent variables need not have equal variance or normal distribution.
 3. These algorithms do not assume a linear relationship between the dependent and independent variables and hence can also handle non-linear effects.
 </t>
-  </si>
-  <si>
-    <t>1. The more the number of decisions in a tree, less is the accuracy of any expected outcome.
-2. Outcomes may be based on expectations. When decisions are made in real-time, the payoffs and resulting outcomes might not be the same as expected or planned. There are chances that this could lead to unrealistic decision trees leading to bad decision making. 
-3. Do not fit well for continuous variables 
-4. Creating large decision trees that contain several branches is a complex and time consuming task.
-5. Consider only one attribute at a time and might not be best suited for actual data in the decision space.
-6. Large sized decision trees with multiple branches are not comprehensible and pose several presentation difficulties.</t>
-  </si>
-  <si>
-    <t>1. They might be easy to use but analysing them theoretically, is difficult.
-2. Large number of decision trees in the random forest can slow down the algorithm in making real-time predictions.
-3. If the data consists of categorical variables with different number of levels, then the algorithm gets biased in favour of those attributes that have more levels.
-4. When using RandomForest algorithm for regression tasks, it does not predict beyond the range of the response values in the training data.</t>
-  </si>
-  <si>
-    <t>1. In high dimens, model may over fit the training data.
-2. Logistic regression algorithms cannot predict continuous outcomes. For instance, model cannot be applied when the goal is to determine how heavily it will rain because the scale of measuring rainfall is continuous. Data scientists can predict heavy or low rainfall but this would make some compromises with the precision of the dataset.
-3. Logistic regression algorithms require more data to achieve stability and meaningful results. Require minimum of 50 data points
-4. It predicts outcomes depending on a group of independent variables and if we identify wrong independent variables then the developed model will have minimal or no predictive value.
-5. It is not robust to outliers and missing values.</t>
-  </si>
-  <si>
-    <t>1. Linear SVM’s – In linear SVM’s the training data i.e. classifiers are separated by a hyperplane.
-2. Non-Linear SVM’s- In non-linear SVM’s it is not possible to separate the training data using a hyperplane. For example, the training data for Face detection consists of group of images that are faces and another group of images that are not faces (in other words all other images in the world except faces). Under such conditions, the training data is too complex that it is impossible to find a representation for every feature vector. Separating the set of faces linearly from the set of non-face is a complex task.</t>
-  </si>
-  <si>
-    <t>1. Binary Logistic Regression – The most commonly used logistic regression when the categorical response has 2 possible outcomes i.e. either yes or not. 
-2. Multi-nominal Logistic Regression - Categorical response has 3 or more possible outcomes with no ordering. Example- Predicting what kind of search engine (Yahoo, Bing, Google, and MSN) is used by majority of US citizens.
-3. Ordinal Logistic Regression - Categorical response has 3 or more possible outcomes with natural ordering. Example- How a customer rates the service and quality of food at a restaurant based on a scale of 1 to 10.</t>
   </si>
   <si>
     <t>1. Sentiment Analysis
@@ -217,29 +136,12 @@
 b – Intercept</t>
   </si>
   <si>
-    <t>A Naive Bayes classifier assumes that the presence of a particular feature in a class is unrelated to the presence of any other feature.
-Even if these features are related to each other, a Naive Bayes classifier would consider all of these properties independently when calculating the probability of a particular outcome.
-A Naive Bayesian model is easy to build and useful for massive datasets. It's simple, and is known to outperform even highly sophisticated classification methods</t>
-  </si>
-  <si>
     <t>K- Nearest Neighbors</t>
-  </si>
-  <si>
-    <t>can be applied to both classification and regression problems.widely used to solve classification problems. It’s a simple algorithm that stores all available cases and classifies any new cases by taking a majority vote of its k neighbors. The case is then assigned to the class with which it has the most in common.  A distance function performs this measurement.</t>
   </si>
   <si>
     <t>KNN is computationally expensive
 Variables should be normalized, or else higher range variables can bias the algorithm
 Data still needs to be pre-processed.</t>
-  </si>
-  <si>
-    <t>The K-means algorithm picks k number of points, called centroids, for each cluster
-Each data point forms a cluster with the closest centroids i.e. k clusters.
-It now creates new centroids, based on the existing cluster members.
-With these new centroids, the closest distance for each data point is determined. This process is repeated until the centroids do not change.</t>
-  </si>
-  <si>
-    <t>How it wars</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -299,195 +201,11 @@
     <t>float=&gt; The C parameter</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>from sklearn.tree import DecisionTreeClassifier
-classifier = DecisionTreeClassifier()</t>
-  </si>
-  <si>
-    <t>from sklearn.linear_model import LogisticRegression
-classifier = LogisticRegression()</t>
-  </si>
-  <si>
-    <t>from sklearn.metrics import accuracy_score
-from sklearn.cross_validation import train_test_split
-model.fit(X_train,y_train)
-model.predict(X_test)
-accuracy_score(y_test, y_pred)</t>
-  </si>
-  <si>
-    <t>from sklearn.linear_model import LinearRegression</t>
-  </si>
-  <si>
-    <r>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF525C65"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> sklearn.ensemble </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF525C65"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> AdaBoostClassifier
-model = AdaBoostClassifier(base_estimator = DecisionTreeClassifier(max_depth=2), n_estimators = 4)</t>
-    </r>
-  </si>
-  <si>
-    <t>from sklearn.metrics import make_scorer
-from sklearn.metrics import f1_score
-scorer = make_scorer(f1_score)</t>
-  </si>
-  <si>
     <t>from sklearn.model_selection import GridSearchCV
 parameters = {'kernel':['poly', 'rbf'],'C':[0.1, 1, 10]}
 grid_obj = GridSearchCV(clf, parameters, scoring=scorer)
 grid_fit = grid_obj.fit(X, y)
 best_clf = grid_fit.best_estimator_</t>
-  </si>
-  <si>
-    <t>parameters = {'max_depth':[2,4,6,8,10],'min_samples_leaf':[2,4,6,8,10], 'min_samples_split':[2,4,6,8,10]}</t>
-  </si>
-  <si>
-    <t>HyperParameter</t>
-  </si>
-  <si>
-    <t>Max_depth, min_samples_leaf, min_sampe_split</t>
-  </si>
-  <si>
-    <t>Kernel,gama,C</t>
-  </si>
-  <si>
-    <r>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>sklearn.decomposition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> PCA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>sklearn.cluster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> KMeans</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">from sklearn.decomposition import PCA
-pca = PCA(n_components=6)
-pca.fit(good_data)
-reduced_data = pca.fit_transform(good_data)
-reduced_data = pd.DataFrame(reduced_data, columns = ['Dimension 1', 'Dimension 2'])
-</t>
   </si>
   <si>
     <t>Ordered</t>
@@ -598,16 +316,6 @@
   </si>
   <si>
     <t>Boosting</t>
-  </si>
-  <si>
-    <t>unsupervised algorithm.  The search term “Jaguar” on Wikipedia will return all pages containing the word Jaguar which can refer to Jaguar as a Car, Jaguar as Mac OS version and Jaguar as an Animal. K Means clustering algorithm can be applied to group the webpages that talk about similar concepts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The K-means algorithm picks k number of points, called centroids, for each cluster
-Each data point forms a cluster with the closest centroids i.e. k clusters.
-It now creates new centroids, based on the existing cluster members.
-With these new centroids, the closest distance for each data point is determined. This process is repeated until the centroids do not change.
-</t>
   </si>
   <si>
     <t>1. Parallal computing is Easy
@@ -778,7 +486,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>sklearn</t>
+      <t>sklearn.naive_bayes</t>
     </r>
     <r>
       <rPr>
@@ -806,49 +514,11 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> datasets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">iris </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF666666"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> datasets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF666666"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>load_iris()</t>
-    </r>
+      <t xml:space="preserve"> GaussianNB</t>
+    </r>
+  </si>
+  <si>
+    <t>from sklearn.metrics import accuracy_score, precision_score, recall_score, f1_score</t>
   </si>
   <si>
     <r>
@@ -871,7 +541,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>sklearn.naive_bayes</t>
+      <t>sklearn.ensemble</t>
     </r>
     <r>
       <rPr>
@@ -899,15 +569,39 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> GaussianNB</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>from sklearn.metrics import accuracy_score, precision_score, recall_score, f1_score</t>
+      <t xml:space="preserve"> RandomForestClassifier</t>
+    </r>
+  </si>
+  <si>
+    <t>loss function</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>separate classes by finding a line (hyperplane) thus by maximize the margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How changes in one variable impacts the other. The algorithm shows the impact on the dependent variable on changing the independent variable. </t>
+  </si>
+  <si>
+    <t>Binary classification. Predict 0 or 1, True or False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses a bagging approach to create a bunch of decision trees. In this ensemble learning method, the output of all the decision trees in the random forest, is combined to make the final prediction. </t>
+  </si>
+  <si>
+    <t>sklearn.neighbors.KNeighborsClassifier()
+n_neighbors: 5
+algorithm : {‘auto’, ‘ball_tree’, ‘kd_tree’, ‘brute’}
+leaf_size: 30</t>
+  </si>
+  <si>
+    <t>The K-means algorithm picks k number of points, called centroids, for each cluster Each data point forms a cluster with the closest centroids i.e. k clusters. It now creates new centroids, based on the existing cluster members. With these new centroids, the closest distance for each data point is determined. This process is repeated until the centroids do not change.</t>
+  </si>
+  <si>
+    <t>Assumes Features are not reated to each other.
+Easy to build, Useful for massive datasets, It's simple, Outperform even highly sophisticated classification methods</t>
   </si>
   <si>
     <r>
@@ -958,14 +652,23 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> LinearRegression</t>
-    </r>
-  </si>
-  <si>
-    <t>normalize=False</t>
-  </si>
-  <si>
-    <t>LogisticRegression</t>
+      <t xml:space="preserve"> LinearRegression, LogisticRegression</t>
+    </r>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>from sklearn.decomposition import PCA
+pca = PCA(n_components=6)
+pca.fit(good_data)
+reduced_data = pca.fit_transform(good_data)
+reduced_data = pd.DataFrame(reduced_data, columns = ['Dimension 1', 'Dimension 2'])</t>
+  </si>
+  <si>
+    <t>from sklearn.ensemble import AdaBoostClassifier
+model = AdaBoostClassifier(
+base_estimator = DecisionTreeClassifier(max_depth=2), n_estimators = 4)</t>
   </si>
   <si>
     <r>
@@ -973,9 +676,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -983,18 +686,18 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF0E84B5"/>
-        <rFont val="Consolas"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>sklearn.ensemble</t>
+      <t>sklearn.cluster</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1002,139 +705,104 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF007020"/>
-        <rFont val="Consolas"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
       <t>import</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> RandomForestClassifier</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0E84B5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>sklearn.cluster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF007020"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> KMeans</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0E84B5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>sklearn.neighbors</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF007020"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> NearestNeighbors</t>
-    </r>
-  </si>
-  <si>
-    <t>loss function</t>
-  </si>
-  <si>
-    <t>optimizer</t>
+      <t xml:space="preserve"> Kmeans
+n_clusters: 8
+max_iter: 300</t>
+    </r>
+  </si>
+  <si>
+    <t>GridSearchCV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from sklearn.svm import </t>
+  </si>
+  <si>
+    <t>1. Predict if a loan applicant is a likely high risk.
+2. Predict the failure or breakdown of a mechanical part.
+3. Predict if a patient is likely to develop a chronic disease or not.
+4. Predicting the average number of social media shares and performance scores.
+5. Ppredicting patterns in speech recognition software and classifying images and texts.</t>
+  </si>
+  <si>
+    <t>*. Used to predict whether a candidate will win or lose a political election
+*. Used to classify a set of words as nouns, pronouns, verbs, adjectives.
+*. Used in weather forecasting to predict the probability of rain.
+*. Used in credit scoring systems for risk management to predict the defaulting of an account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM is commonly used for stock market forecasting </t>
+  </si>
+  <si>
+    <t>*. Handle outliers and Simple to use
+*. Save data preparation time
+*. handling numerical, binary and categorical features, without scaling, transformation or modification.
+*. Implicit feature selection as it gives estimates on what variables are important in the classification.</t>
+  </si>
+  <si>
+    <t>*. Overfitting is less of an issue
+3. More robust to noise.
+4. Build a decent model without much tuning.
+5. Can be grown in parallel.
+6. This algorithm runs efficiently on large databases.
+7. Has higher classification accuracy.</t>
+  </si>
+  <si>
+    <t>*. Cannot predict continuous outcomes.
+3. Require more data to achieve stability and meaningful results. Require minimum of 50 data points
+4. It predicts outcomes depending on a group of independent variables and if we identify wrong independent variables then the developed model will have minimal or no predictive value.
+5. It is not robust to outliers and missing values.</t>
+  </si>
+  <si>
+    <t>1. They might be easy to use but analysing them theoretically, is difficult.
+2. Large number of decision trees in the random forest can slow down the algorithm in making real-time predictions.
+3. If the data consists of categorical variables with different number of levels, then the algorithm gets biased in favour of those attributes that have more levels.</t>
+  </si>
+  <si>
+    <t>1. Linear SVM
+2. Non-Linear SVM</t>
+  </si>
+  <si>
+    <t>1. Binary Logistic Regression 
+2. Multi-nominal Logistic Regression - Categorical response has 3 or more possible outcomes with no ordering. 
+3. Ordinal Logistic Regression - Categorical response has 3 or more possible outcomes with natural ordering. Example- How a customer rates the service and quality of food at a restaurant based on a scale of 1 to 10.</t>
+  </si>
+  <si>
+    <t>model.fit(X_train,y_train)
+model.predict(X_test)
+accuracy_score(y_test, y_pred)</t>
+  </si>
+  <si>
+    <t>Import &amp;
+HyperParameter</t>
+  </si>
+  <si>
+    <t>K-Fold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from sklearn.model_selection import Kfold
+n_splits: 3
+shuffle: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1167,12 +835,6 @@
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF525C65"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1281,17 +943,18 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1314,7 +977,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1338,16 +1001,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1356,54 +1017,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1458,10 +1078,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1471,47 +1091,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1727,115 +1310,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1845,41 +1368,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1888,16 +1452,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2547,357 +2111,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="45.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="54.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="55" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="46.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="37" customWidth="1"/>
+    <col min="2" max="6" width="45.7109375" style="37"/>
+    <col min="7" max="7" width="41.42578125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="58.7109375" style="37" customWidth="1"/>
+    <col min="9" max="12" width="45.7109375" style="37"/>
+    <col min="13" max="13" width="49.5703125" style="37" customWidth="1"/>
+    <col min="14" max="16384" width="45.7109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="91.5" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" ht="96" customHeight="1">
+      <c r="A3" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="66" customHeight="1">
+      <c r="A4" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+    </row>
+    <row r="5" spans="1:14" ht="120">
+      <c r="A5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:14" ht="150">
+      <c r="A6" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:14" ht="135">
+      <c r="A7" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="1:14" ht="135">
+      <c r="A8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="135">
+      <c r="A9" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="43"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A11" s="43"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" ht="45.75" thickBot="1">
+      <c r="B12" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="180">
-      <c r="A2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="135">
-      <c r="A3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" ht="66" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="225">
-      <c r="A5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:11" ht="165">
-      <c r="A6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="240">
-      <c r="A7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="225">
-      <c r="A8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="195.75" thickBot="1">
-      <c r="A9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A10" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" s="61" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="105">
-      <c r="C11" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="75">
-      <c r="B14" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="105">
-      <c r="B15" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" thickBot="1">
-      <c r="F16" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
+      <c r="C12" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="39"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75">
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="17" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B17" s="61" t="s">
-        <v>140</v>
-      </c>
+      <c r="B17" s="36"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B18" s="62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B19" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="D22" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="B18" s="40"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75">
+      <c r="E19" s="41"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2923,46 +2463,46 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5">
-      <c r="A2" s="24"/>
-      <c r="B2" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>57</v>
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>60</v>
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2989,114 +2529,114 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>77</v>
+      <c r="B2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>83</v>
+      <c r="B3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>84</v>
+      <c r="B4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>83</v>
+      <c r="B5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>83</v>
+      <c r="B6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>83</v>
+      <c r="B7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>84</v>
+      <c r="B8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B9" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>84</v>
+      <c r="B9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B11" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="B11" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="13" spans="2:6" ht="52.5" customHeight="1">
-      <c r="B13" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="B13" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="45" t="s">
-        <v>88</v>
+      <c r="B14" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3123,28 +2663,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="46" t="s">
-        <v>91</v>
+      <c r="B2" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="47" t="s">
-        <v>92</v>
+      <c r="B5" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="47" t="s">
-        <v>93</v>
+      <c r="B7" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="47" t="s">
-        <v>94</v>
+      <c r="B9" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="47" t="s">
-        <v>95</v>
+      <c r="B11" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3175,288 +2715,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="49" t="s">
-        <v>105</v>
+      <c r="B1" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="49"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="L6" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="L6" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="L9" s="53" t="s">
-        <v>16</v>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="L9" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="L10" s="53" t="s">
-        <v>120</v>
+      <c r="B10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="L10" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="L11" s="53" t="s">
-        <v>15</v>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="L11" s="27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="L12" s="53"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="L13" s="53" t="s">
-        <v>121</v>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="L13" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="L14" s="53" t="s">
-        <v>122</v>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="L14" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="M14" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3488,81 +3028,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B1" s="54" t="s">
-        <v>114</v>
+      <c r="B1" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="55" t="s">
-        <v>125</v>
+      <c r="B2" s="29" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="55"/>
+      <c r="B3" s="29"/>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="55" t="s">
-        <v>126</v>
+      <c r="B4" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="55" t="s">
-        <v>127</v>
+      <c r="B5" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="55" t="s">
-        <v>128</v>
+      <c r="B6" s="29" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="55"/>
+      <c r="B7" s="29"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="55" t="s">
-        <v>129</v>
+      <c r="B8" s="29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B9" s="56" t="s">
-        <v>130</v>
+      <c r="B9" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="12" spans="2:2">
-      <c r="B12" s="57" t="s">
-        <v>131</v>
+      <c r="B12" s="31" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="58" t="s">
-        <v>132</v>
+      <c r="B13" s="32" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="32"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="58" t="s">
-        <v>133</v>
+      <c r="B15" s="32" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="58" t="s">
-        <v>134</v>
+      <c r="B16" s="32" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="58" t="s">
-        <v>135</v>
+      <c r="B17" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="58"/>
+      <c r="B18" s="32"/>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B19" s="59" t="s">
-        <v>136</v>
+      <c r="B19" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3584,18 +3124,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="60" t="s">
-        <v>137</v>
+      <c r="B2" s="34" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="60" t="s">
-        <v>138</v>
+      <c r="B3" s="34" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="60" t="s">
-        <v>139</v>
+      <c r="B4" s="34" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3622,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -3633,7 +3173,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:5">

--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ML Algorithms" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
     <sheet name="Algorithms purpose" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
-    <sheet name="Deep Learning" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Deep Learning" sheetId="7" r:id="rId8"/>
+    <sheet name="Pandas" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="139">
   <si>
     <t>Algorithm Name</t>
   </si>
@@ -81,9 +82,6 @@
   </si>
   <si>
     <t>About</t>
-  </si>
-  <si>
-    <t>help a data scientist capture the idea that if a different decision was taken, then how the operational nature of a situation or model would have changed intensely.</t>
   </si>
   <si>
     <t>Decision tree algorithms help make optimal decisions by allowing a data scientist to traverse through forward and backward calculation paths.</t>
@@ -597,13 +595,6 @@
 leaf_size: 30</t>
   </si>
   <si>
-    <t>The K-means algorithm picks k number of points, called centroids, for each cluster Each data point forms a cluster with the closest centroids i.e. k clusters. It now creates new centroids, based on the existing cluster members. With these new centroids, the closest distance for each data point is determined. This process is repeated until the centroids do not change.</t>
-  </si>
-  <si>
-    <t>Assumes Features are not reated to each other.
-Easy to build, Useful for massive datasets, It's simple, Outperform even highly sophisticated classification methods</t>
-  </si>
-  <si>
     <r>
       <t>from</t>
     </r>
@@ -796,6 +787,23 @@
     <t xml:space="preserve">from sklearn.model_selection import Kfold
 n_splits: 3
 shuffle: </t>
+  </si>
+  <si>
+    <t>Assumes Features are not related to each other.
+Easy to build, Useful for massive datasets, It's simple, Outperform even highly sophisticated classification methods</t>
+  </si>
+  <si>
+    <t>help a data scientist capture the idea that if a different decision was taken, then how the operational nature of a situation or model would have changed intensely.
+Nested if else structure</t>
+  </si>
+  <si>
+    <t>The K-means algorithm picks k number of points, called centroids. for each cluster, Each data point forms a cluster with the closest centroids i.e. k clusters. BASED on the existing cluster members It now creates new centroids.. With these new centroids, the closest distance for each data point is determined. This process is repeated until the centroids do not change.</t>
+  </si>
+  <si>
+    <t>data.columns = map(str.lower, data.columns)</t>
+  </si>
+  <si>
+    <t>lower column header</t>
   </si>
 </sst>
 </file>
@@ -2113,11 +2121,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="15"/>
@@ -2157,22 +2165,22 @@
         <v>5</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="46" t="s">
-        <v>74</v>
-      </c>
       <c r="L1" s="46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M1" s="46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N1" s="46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="91.5" customHeight="1">
@@ -2180,31 +2188,31 @@
         <v>16</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C2" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>114</v>
-      </c>
       <c r="J2" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
@@ -2212,48 +2220,48 @@
     </row>
     <row r="3" spans="1:14" ht="96" customHeight="1">
       <c r="A3" s="47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="38"/>
       <c r="G3" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="66" customHeight="1">
       <c r="A4" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
@@ -2276,10 +2284,10 @@
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
@@ -2293,22 +2301,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>6</v>
@@ -2324,30 +2332,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="E7" s="38" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
@@ -2360,21 +2368,21 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="38" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>78</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
@@ -2385,11 +2393,11 @@
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -2412,10 +2420,10 @@
     </row>
     <row r="12" spans="1:14" ht="45.75" thickBot="1">
       <c r="B12" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2465,7 +2473,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -2473,36 +2481,36 @@
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2530,95 +2538,95 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6">
       <c r="B2" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1">
       <c r="B9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1">
       <c r="B11" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -2627,7 +2635,7 @@
     </row>
     <row r="13" spans="2:6" ht="52.5" customHeight="1">
       <c r="B13" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
@@ -2636,7 +2644,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2664,27 +2672,27 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2706,7 @@
   <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2716,26 +2724,26 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>64</v>
-      </c>
       <c r="E1" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="56" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>71</v>
       </c>
       <c r="H1" s="57"/>
       <c r="I1" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -2745,22 +2753,22 @@
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
       <c r="G2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -2770,13 +2778,13 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
@@ -2784,13 +2792,13 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -2801,10 +2809,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -2812,21 +2820,21 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="L6" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -2836,12 +2844,12 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -2850,12 +2858,12 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -2867,26 +2875,30 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="L10" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="23" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -2916,10 +2928,10 @@
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="L13" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -2932,10 +2944,10 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="L14" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -3029,12 +3041,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="15.75" customHeight="1">
       <c r="B1" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -3042,17 +3054,17 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -3060,23 +3072,23 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" thickBot="1">
       <c r="B9" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="12" spans="2:2">
       <c r="B12" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -3084,17 +3096,17 @@
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -3102,7 +3114,7 @@
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1">
       <c r="B19" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3111,6 +3123,88 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -3125,17 +3219,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3144,81 +3238,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E10"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10">
-        <v>10</v>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
